--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatJ.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatJ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
   <si>
     <t>TC</t>
   </si>
@@ -194,12 +199,15 @@
   </si>
   <si>
     <t>TwoWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,6 +295,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -334,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,9 +378,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,6 +430,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,22 +622,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -620,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -634,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -648,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -662,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -676,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -697,24 +742,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="76.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -737,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -754,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -771,7 +816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -788,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -805,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -822,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -839,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -856,7 +901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -873,7 +918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -890,7 +935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -907,7 +952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -924,7 +969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -941,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -965,29 +1010,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="44.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="44.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1028,7 +1073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -1063,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -1098,7 +1143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
@@ -1133,7 +1178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
@@ -1168,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -1203,7 +1248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -1238,7 +1283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
@@ -1273,7 +1318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1308,7 +1353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
@@ -1343,7 +1388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -1378,7 +1423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -1413,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
@@ -1448,7 +1493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -1485,14 +1530,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E11" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E12" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E13" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E14" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E9" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E11" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E12" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E13" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
@@ -1500,29 +1545,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C7:C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1566,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -1589,7 +1634,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>56</v>
@@ -1606,7 +1651,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatJ.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatJ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="59">
   <si>
     <t>TC</t>
   </si>
@@ -177,9 +177,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -201,13 +198,13 @@
     <t>TwoWeekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,7 +619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -742,7 +739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1010,11 +1007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1078,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>21</v>
@@ -1090,19 +1087,19 @@
         <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>6</v>
@@ -1116,7 +1113,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>21</v>
@@ -1125,19 +1122,19 @@
         <v>49</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>6</v>
@@ -1151,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>21</v>
@@ -1160,19 +1157,19 @@
         <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>6</v>
@@ -1186,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>21</v>
@@ -1195,19 +1192,19 @@
         <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>6</v>
@@ -1221,7 +1218,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>21</v>
@@ -1230,19 +1227,19 @@
         <v>49</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>6</v>
@@ -1256,7 +1253,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>21</v>
@@ -1265,19 +1262,19 @@
         <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>6</v>
@@ -1291,7 +1288,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>21</v>
@@ -1300,19 +1297,19 @@
         <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>6</v>
@@ -1326,7 +1323,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>21</v>
@@ -1335,19 +1332,19 @@
         <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>6</v>
@@ -1361,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>21</v>
@@ -1370,19 +1367,19 @@
         <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>6</v>
@@ -1396,7 +1393,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>21</v>
@@ -1405,19 +1402,19 @@
         <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>6</v>
@@ -1431,7 +1428,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>21</v>
@@ -1440,19 +1437,19 @@
         <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>6</v>
@@ -1466,7 +1463,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>21</v>
@@ -1475,19 +1472,19 @@
         <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>6</v>
@@ -1501,7 +1498,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>21</v>
@@ -1510,19 +1507,19 @@
         <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>6</v>
@@ -1530,14 +1527,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E9" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E10" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E11" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E12" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E13" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E14" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3:E8" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E11" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E12" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E13" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
@@ -1545,10 +1542,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1599,7 +1596,7 @@
         <v>47</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1619,7 +1616,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>21</v>
@@ -1628,22 +1625,22 @@
         <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>6</v>
@@ -1651,7 +1648,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
